--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="167" uniqueCount="101">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
   <si>
     <t>API Mode</t>
   </si>
@@ -346,6 +346,60 @@
   </si>
   <si>
     <t>RMA-VAXX-1-3</t>
+  </si>
+  <si>
+    <t>RMA-YEZ5-001</t>
+  </si>
+  <si>
+    <t>RMA-YEZ5-002</t>
+  </si>
+  <si>
+    <t>RMA-YEZ5-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLlAAM</t>
+  </si>
+  <si>
+    <t>RMA-YEZ5-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLmAAM</t>
+  </si>
+  <si>
+    <t>RMA-YEZ5-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKLnAAM</t>
+  </si>
+  <si>
+    <t>RMA-YEZ5-1-3</t>
+  </si>
+  <si>
+    <t>RMA-YZ8C-001</t>
+  </si>
+  <si>
+    <t>RMA-YZ8C-002</t>
+  </si>
+  <si>
+    <t>RMA-YZ8C-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKM5AAM</t>
+  </si>
+  <si>
+    <t>RMA-YZ8C-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKM6AAM</t>
+  </si>
+  <si>
+    <t>RMA-YZ8C-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKM7AAM</t>
+  </si>
+  <si>
+    <t>RMA-YZ8C-1-3</t>
   </si>
 </sst>
 </file>
@@ -355,7 +409,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="39" x14ac:knownFonts="1">
+  <fonts count="63" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -375,6 +429,150 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -601,7 +799,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="19">
+  <borders count="31">
     <border>
       <left/>
       <right/>
@@ -663,11 +861,47 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="39">
+  <cellXfs count="63">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -705,8 +939,32 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="16" fillId="0" fontId="34" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="35" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="17" fillId="0" fontId="36" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="37" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="38" fillId="0" borderId="18" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="37" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="18" fillId="0" fontId="38" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="39" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="19" fillId="0" fontId="40" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="41" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="20" fillId="0" fontId="42" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="43" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="21" fillId="0" fontId="44" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="45" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="22" fillId="0" fontId="46" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="47" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="23" fillId="0" fontId="48" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="49" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="24" fillId="0" fontId="50" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="51" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="25" fillId="0" fontId="52" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="53" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="26" fillId="0" fontId="54" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="55" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="27" fillId="0" fontId="56" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="57" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="62" fillId="0" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1597,11 +1855,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.44140625" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0234375" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="20.79296875" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="22.05859375" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1651,10 +1909,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>92</v>
+        <v>110</v>
       </c>
       <c r="F2" t="s">
-        <v>96</v>
+        <v>114</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1663,7 +1921,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>95</v>
+        <v>113</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1680,10 +1938,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>93</v>
+        <v>111</v>
       </c>
       <c r="F3" t="s">
-        <v>98</v>
+        <v>116</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1692,7 +1950,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>97</v>
+        <v>115</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1709,10 +1967,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>94</v>
+        <v>112</v>
       </c>
       <c r="F4" t="s">
-        <v>100</v>
+        <v>118</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1721,7 +1979,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>99</v>
+        <v>117</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="185" uniqueCount="119">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="155">
   <si>
     <t>API Mode</t>
   </si>
@@ -400,6 +400,114 @@
   </si>
   <si>
     <t>RMA-YZ8C-1-3</t>
+  </si>
+  <si>
+    <t>RMA-CCO8-001</t>
+  </si>
+  <si>
+    <t>RMA-CCO8-002</t>
+  </si>
+  <si>
+    <t>RMA-CCO8-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKQvAAM</t>
+  </si>
+  <si>
+    <t>RMA-CCO8-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKQwAAM</t>
+  </si>
+  <si>
+    <t>RMA-CCO8-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKQxAAM</t>
+  </si>
+  <si>
+    <t>RMA-CCO8-1-3</t>
+  </si>
+  <si>
+    <t>RMA-MUFK-001</t>
+  </si>
+  <si>
+    <t>RMA-MUFK-002</t>
+  </si>
+  <si>
+    <t>RMA-MUFK-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRKAA2</t>
+  </si>
+  <si>
+    <t>RMA-MUFK-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRLAA2</t>
+  </si>
+  <si>
+    <t>RMA-MUFK-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRMAA2</t>
+  </si>
+  <si>
+    <t>RMA-MUFK-1-3</t>
+  </si>
+  <si>
+    <t>RMA-4XLJ-001</t>
+  </si>
+  <si>
+    <t>RMA-4XLJ-002</t>
+  </si>
+  <si>
+    <t>RMA-4XLJ-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRUAA2</t>
+  </si>
+  <si>
+    <t>RMA-4XLJ-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRVAA2</t>
+  </si>
+  <si>
+    <t>RMA-4XLJ-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRWAA2</t>
+  </si>
+  <si>
+    <t>RMA-4XLJ-1-3</t>
+  </si>
+  <si>
+    <t>RMA-P45T-001</t>
+  </si>
+  <si>
+    <t>RMA-P45T-002</t>
+  </si>
+  <si>
+    <t>RMA-P45T-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRZAA2</t>
+  </si>
+  <si>
+    <t>RMA-P45T-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRaAAM</t>
+  </si>
+  <si>
+    <t>RMA-P45T-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKRbAAM</t>
+  </si>
+  <si>
+    <t>RMA-P45T-1-3</t>
   </si>
 </sst>
 </file>
@@ -409,7 +517,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="63" x14ac:knownFonts="1">
+  <fonts count="111" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -429,6 +537,294 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -799,7 +1195,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="31">
+  <borders count="55">
     <border>
       <left/>
       <right/>
@@ -897,11 +1293,83 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="63">
+  <cellXfs count="111">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -963,8 +1431,56 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="28" fillId="0" fontId="58" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="59" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="29" fillId="0" fontId="60" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="61" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="62" fillId="0" borderId="30" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="61" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="30" fillId="0" fontId="62" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="63" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="31" fillId="0" fontId="64" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="65" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="32" fillId="0" fontId="66" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="67" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="33" fillId="0" fontId="68" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="69" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="34" fillId="0" fontId="70" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="71" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="35" fillId="0" fontId="72" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="73" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="36" fillId="0" fontId="74" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="75" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="37" fillId="0" fontId="76" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="77" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="38" fillId="0" fontId="78" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="79" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="39" fillId="0" fontId="80" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="81" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="40" fillId="0" fontId="82" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="83" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="41" fillId="0" fontId="84" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="85" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="42" fillId="0" fontId="86" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="87" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="43" fillId="0" fontId="88" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="89" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="44" fillId="0" fontId="90" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="91" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="45" fillId="0" fontId="92" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="93" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="46" fillId="0" fontId="94" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="95" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="47" fillId="0" fontId="96" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="97" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="48" fillId="0" fontId="98" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="99" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="49" fillId="0" fontId="100" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="101" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="50" fillId="0" fontId="102" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="103" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="51" fillId="0" fontId="104" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="105" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="110" fillId="0" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -1855,11 +2371,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.0234375" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.07421875" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="22.05859375" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.4140625" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -1909,10 +2425,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>110</v>
+        <v>146</v>
       </c>
       <c r="F2" t="s">
-        <v>114</v>
+        <v>150</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -1921,7 +2437,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>113</v>
+        <v>149</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -1938,10 +2454,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>111</v>
+        <v>147</v>
       </c>
       <c r="F3" t="s">
-        <v>116</v>
+        <v>152</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -1950,7 +2466,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>115</v>
+        <v>151</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -1967,10 +2483,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>112</v>
+        <v>148</v>
       </c>
       <c r="F4" t="s">
-        <v>118</v>
+        <v>154</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -1979,7 +2495,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>117</v>
+        <v>153</v>
       </c>
     </row>
   </sheetData>

--- a/templates/AutomationOrg/RMA Receipt Reversal.xlsx
+++ b/templates/AutomationOrg/RMA Receipt Reversal.xlsx
@@ -43,7 +43,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="221" uniqueCount="155">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="248" uniqueCount="182">
   <si>
     <t>API Mode</t>
   </si>
@@ -508,6 +508,87 @@
   </si>
   <si>
     <t>RMA-P45T-1-3</t>
+  </si>
+  <si>
+    <t>RMA-OG2R-001</t>
+  </si>
+  <si>
+    <t>RMA-OG2R-002</t>
+  </si>
+  <si>
+    <t>RMA-OG2R-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYgAAM</t>
+  </si>
+  <si>
+    <t>RMA-OG2R-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYhAAM</t>
+  </si>
+  <si>
+    <t>RMA-OG2R-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKYiAAM</t>
+  </si>
+  <si>
+    <t>RMA-OG2R-1-3</t>
+  </si>
+  <si>
+    <t>RMA-UZD2-001</t>
+  </si>
+  <si>
+    <t>RMA-UZD2-002</t>
+  </si>
+  <si>
+    <t>RMA-UZD2-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZ0AAM</t>
+  </si>
+  <si>
+    <t>RMA-UZD2-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZ1AAM</t>
+  </si>
+  <si>
+    <t>RMA-UZD2-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZ2AAM</t>
+  </si>
+  <si>
+    <t>RMA-UZD2-1-3</t>
+  </si>
+  <si>
+    <t>RMA-C0A6-001</t>
+  </si>
+  <si>
+    <t>RMA-C0A6-002</t>
+  </si>
+  <si>
+    <t>RMA-C0A6-003</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZeAAM</t>
+  </si>
+  <si>
+    <t>RMA-C0A6-1-1</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZfAAM</t>
+  </si>
+  <si>
+    <t>RMA-C0A6-1-2</t>
+  </si>
+  <si>
+    <t>a7s5f000000xKZgAAM</t>
+  </si>
+  <si>
+    <t>RMA-C0A6-1-3</t>
   </si>
 </sst>
 </file>
@@ -517,7 +598,7 @@
   <numFmts count="1">
     <numFmt numFmtId="164" formatCode="#,##0.0"/>
   </numFmts>
-  <fonts count="111" x14ac:knownFonts="1">
+  <fonts count="147" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -537,6 +618,222 @@
       <color rgb="FF000000"/>
       <name val="Arial"/>
       <family val="2"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="12.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
+    </font>
+    <font>
+      <name val="Calibri"/>
+      <sz val="10.0"/>
+      <color indexed="10"/>
+      <b val="true"/>
     </font>
     <font>
       <name val="Calibri"/>
@@ -1195,7 +1492,7 @@
       <patternFill patternType="gray125"/>
     </fill>
   </fills>
-  <borders count="55">
+  <borders count="73">
     <border>
       <left/>
       <right/>
@@ -1365,11 +1662,65 @@
     <border>
       <bottom style="thin"/>
     </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
+    <border>
+      <bottom style="thin"/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0"/>
   </cellStyleXfs>
-  <cellXfs count="111">
+  <cellXfs count="147">
     <xf borderId="0" fillId="0" fontId="0" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="1" numFmtId="0" xfId="0"/>
     <xf applyFont="1" borderId="0" fillId="0" fontId="2" numFmtId="0" xfId="0"/>
@@ -1479,8 +1830,44 @@
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="52" fillId="0" fontId="106" numFmtId="49" xfId="0"/>
     <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="107" numFmtId="164" xfId="0"/>
     <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="53" fillId="0" fontId="108" numFmtId="49" xfId="0"/>
-    <xf numFmtId="164" fontId="109" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
-    <xf numFmtId="49" fontId="110" fillId="0" borderId="54" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="109" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="54" fillId="0" fontId="110" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="111" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="55" fillId="0" fontId="112" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="113" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="56" fillId="0" fontId="114" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="115" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="57" fillId="0" fontId="116" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="117" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="58" fillId="0" fontId="118" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="119" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="59" fillId="0" fontId="120" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="121" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="60" fillId="0" fontId="122" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="123" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="61" fillId="0" fontId="124" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="125" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="62" fillId="0" fontId="126" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="127" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="63" fillId="0" fontId="128" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="129" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="64" fillId="0" fontId="130" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="131" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="65" fillId="0" fontId="132" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="133" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="66" fillId="0" fontId="134" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="135" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="67" fillId="0" fontId="136" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="137" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="68" fillId="0" fontId="138" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="139" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="69" fillId="0" fontId="140" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="141" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="70" fillId="0" fontId="142" numFmtId="49" xfId="0"/>
+    <xf applyFont="true" applyNumberFormat="true" borderId="0" fillId="0" fontId="143" numFmtId="164" xfId="0"/>
+    <xf applyBorder="true" applyFont="true" applyNumberFormat="true" borderId="71" fillId="0" fontId="144" numFmtId="49" xfId="0"/>
+    <xf numFmtId="164" fontId="145" fillId="0" borderId="0" xfId="0" applyFont="true" applyNumberFormat="true"/>
+    <xf numFmtId="49" fontId="146" fillId="0" borderId="72" xfId="0" applyBorder="true" applyNumberFormat="true" applyFont="true"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle builtinId="0" name="Normal" xfId="0"/>
@@ -2371,11 +2758,11 @@
     <col min="3" max="3" bestFit="true" customWidth="true" width="19.2265625" collapsed="true"/>
     <col min="4" max="4" bestFit="true" customWidth="true" width="20.5078125" collapsed="true"/>
     <col min="5" max="5" bestFit="true" customWidth="true" width="15.4765625" collapsed="true"/>
-    <col min="6" max="6" bestFit="true" customWidth="true" width="14.07421875" collapsed="true"/>
+    <col min="6" max="6" bestFit="true" customWidth="true" width="14.3125" collapsed="true"/>
     <col min="7" max="7" bestFit="true" customWidth="true" width="6.8046875" collapsed="true"/>
     <col min="8" max="8" bestFit="true" customWidth="true" width="11.453125" collapsed="true"/>
     <col min="9" max="9" bestFit="true" customWidth="true" width="14.515625" collapsed="true"/>
-    <col min="10" max="10" bestFit="true" customWidth="true" width="21.4140625" collapsed="true"/>
+    <col min="10" max="10" bestFit="true" customWidth="true" width="21.1875" collapsed="true"/>
     <col min="11" max="12" bestFit="true" customWidth="true" width="21.21875" collapsed="true"/>
   </cols>
   <sheetData>
@@ -2425,10 +2812,10 @@
         <v>26</v>
       </c>
       <c r="E2" t="s">
-        <v>146</v>
+        <v>173</v>
       </c>
       <c r="F2" t="s">
-        <v>150</v>
+        <v>177</v>
       </c>
       <c r="G2" t="s">
         <v>27</v>
@@ -2437,7 +2824,7 @@
         <v>37</v>
       </c>
       <c r="J2" t="s">
-        <v>149</v>
+        <v>176</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.3">
@@ -2454,10 +2841,10 @@
         <v>26</v>
       </c>
       <c r="E3" t="s">
-        <v>147</v>
+        <v>174</v>
       </c>
       <c r="F3" t="s">
-        <v>152</v>
+        <v>179</v>
       </c>
       <c r="G3" t="s">
         <v>27</v>
@@ -2466,7 +2853,7 @@
         <v>37</v>
       </c>
       <c r="J3" t="s">
-        <v>151</v>
+        <v>178</v>
       </c>
     </row>
     <row r="4" spans="1:10" x14ac:dyDescent="0.3">
@@ -2483,10 +2870,10 @@
         <v>26</v>
       </c>
       <c r="E4" t="s">
-        <v>148</v>
+        <v>175</v>
       </c>
       <c r="F4" t="s">
-        <v>154</v>
+        <v>181</v>
       </c>
       <c r="G4" t="s">
         <v>27</v>
@@ -2495,7 +2882,7 @@
         <v>37</v>
       </c>
       <c r="J4" t="s">
-        <v>153</v>
+        <v>180</v>
       </c>
     </row>
   </sheetData>
